--- a/Web管理端与后台接口.xlsx
+++ b/Web管理端与后台接口.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashone\Desktop\内功\宠物机器人文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashone\Desktop\内功\宠物机器人文档\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929676D6-5D5D-4A4A-BDC7-F84799BA7D82}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218E4460-EE6D-43F5-9EE6-2B79687F3EB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="793" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="793" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Web端管理员登陆" sheetId="31" r:id="rId1"/>
@@ -690,57 +690,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,40 +756,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="3" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1145,433 +1145,454 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="K3" s="2" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="K3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="17"/>
+      <c r="O3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
-      <c r="T3" s="4"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="7"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="5"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
-      <c r="T4" s="8"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="K5" s="2" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="K5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="17"/>
+      <c r="M5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
-      <c r="T5" s="4"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="7"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
-      <c r="T6" s="8"/>
+      <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="K7" s="3" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="K7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3" t="s">
+      <c r="L7" s="2"/>
+      <c r="M7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="9" t="s">
+      <c r="N7" s="2"/>
+      <c r="O7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="14"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="14"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="12"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="14"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="12"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K12" s="5"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="14"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="12"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="14"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="12"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="15"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:I22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:I18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:I20"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:I6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="K7:L14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:I16"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="O1:T2"/>
     <mergeCell ref="M7:N14"/>
     <mergeCell ref="O7:T14"/>
     <mergeCell ref="A3:A4"/>
@@ -1588,27 +1609,6 @@
     <mergeCell ref="B9:I10"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:I8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="O1:T2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:I6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="K7:L14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:I16"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:I22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:I18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:I20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1633,565 +1633,577 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="3" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="11"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="14"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="30"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="14"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="32"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="14"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="30"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="17"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="32"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="15"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="K9" s="2" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="K9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="17"/>
+      <c r="M9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="3" t="s">
+      <c r="N9" s="17"/>
+      <c r="O9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="4"/>
+      <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="7"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
-      <c r="T10" s="8"/>
+      <c r="T10" s="6"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="3" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
-      <c r="T11" s="4"/>
+      <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="7"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="5"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
-      <c r="T12" s="8"/>
+      <c r="T12" s="6"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="K13" s="2" t="s">
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="30"/>
+      <c r="K13" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2" t="s">
+      <c r="L13" s="17"/>
+      <c r="M13" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="3"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="4"/>
+      <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="7"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="32"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
-      <c r="T14" s="8"/>
+      <c r="T14" s="6"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="K15" s="2" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="K15" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="3"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="4"/>
+      <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="7"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
-      <c r="T16" s="8"/>
+      <c r="T16" s="6"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="K17" s="3" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="K17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="3" t="s">
+      <c r="L17" s="2"/>
+      <c r="M17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="3" t="s">
+      <c r="N17" s="2"/>
+      <c r="O17" s="1" t="s">
         <v>77</v>
       </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="4"/>
+      <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="7"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
-      <c r="T18" s="8"/>
+      <c r="T18" s="6"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="3" t="s">
+      <c r="L19" s="2"/>
+      <c r="M19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="3" t="s">
+      <c r="N19" s="2"/>
+      <c r="O19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="4"/>
+      <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="7"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="5"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
-      <c r="T20" s="8"/>
+      <c r="T20" s="6"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="3" t="s">
+      <c r="L21" s="2"/>
+      <c r="M21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="3" t="s">
+      <c r="N21" s="2"/>
+      <c r="O21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
-      <c r="T21" s="4"/>
+      <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="7"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="5"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
-      <c r="T22" s="8"/>
+      <c r="T22" s="6"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="3" t="s">
+      <c r="L23" s="2"/>
+      <c r="M23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="3" t="s">
+      <c r="N23" s="2"/>
+      <c r="O23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
-      <c r="T23" s="4"/>
+      <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="7"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="5"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
-      <c r="T24" s="8"/>
+      <c r="T24" s="6"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="3"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="1"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
-      <c r="T25" s="4"/>
+      <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="7"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="5"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
-      <c r="T26" s="8"/>
+      <c r="T26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="O21:T22"/>
-    <mergeCell ref="O11:T12"/>
-    <mergeCell ref="O9:T10"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M23:N24"/>
-    <mergeCell ref="O23:T24"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:I16"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="O25:T26"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="O1:T2"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="O19:T20"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="O13:T14"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="O15:T16"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="O17:T18"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="K3:L8"/>
+    <mergeCell ref="M3:N8"/>
+    <mergeCell ref="O3:T8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:I8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:I2"/>
     <mergeCell ref="A9:A10"/>
@@ -2208,30 +2220,18 @@
     <mergeCell ref="D17:I18"/>
     <mergeCell ref="K9:L10"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:I4"/>
-    <mergeCell ref="K3:L8"/>
-    <mergeCell ref="M3:N8"/>
-    <mergeCell ref="O3:T8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:I8"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="O25:T26"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="O1:T2"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="O19:T20"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="O13:T14"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="O15:T16"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="O17:T18"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:I16"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="O21:T22"/>
+    <mergeCell ref="O11:T12"/>
+    <mergeCell ref="O9:T10"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="O23:T24"/>
+    <mergeCell ref="M9:N10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -2256,497 +2256,527 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="3" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="11"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="14"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="30"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="14"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="32"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="14"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="30"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="17"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="32"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="15"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="K9" s="2" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="K9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="17"/>
+      <c r="M9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="3" t="s">
+      <c r="N9" s="17"/>
+      <c r="O9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="4"/>
+      <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="7"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
-      <c r="T10" s="8"/>
+      <c r="T10" s="6"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="3" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
-      <c r="T11" s="4"/>
+      <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="7"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="5"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
-      <c r="T12" s="8"/>
+      <c r="T12" s="6"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="K13" s="3" t="s">
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="30"/>
+      <c r="K13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3" t="s">
+      <c r="L13" s="2"/>
+      <c r="M13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="3" t="s">
+      <c r="N13" s="2"/>
+      <c r="O13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="4"/>
+      <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="7"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="32"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
-      <c r="T14" s="8"/>
+      <c r="T14" s="6"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
-      <c r="K15" s="3" t="s">
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="30"/>
+      <c r="K15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="3" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="3" t="s">
+      <c r="N15" s="2"/>
+      <c r="O15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="4"/>
+      <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="7"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="32"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
-      <c r="T16" s="8"/>
+      <c r="T16" s="6"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="K17" s="3" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="K17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="3" t="s">
+      <c r="L17" s="2"/>
+      <c r="M17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="3" t="s">
+      <c r="N17" s="2"/>
+      <c r="O17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="4"/>
+      <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="7"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
-      <c r="T18" s="8"/>
+      <c r="T18" s="6"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="3" t="s">
+      <c r="L19" s="2"/>
+      <c r="M19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="3" t="s">
+      <c r="N19" s="2"/>
+      <c r="O19" s="1" t="s">
         <v>60</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="4"/>
+      <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="7"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="5"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
-      <c r="T20" s="8"/>
+      <c r="T20" s="6"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="3" t="s">
+      <c r="L21" s="2"/>
+      <c r="M21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="3" t="s">
+      <c r="N21" s="2"/>
+      <c r="O21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
-      <c r="T21" s="4"/>
+      <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="7"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="5"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
-      <c r="T22" s="8"/>
+      <c r="T22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="O1:T2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:I8"/>
+    <mergeCell ref="K3:L8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:I10"/>
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="O13:T14"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="O11:T12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:I14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:I18"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:I16"/>
     <mergeCell ref="O3:T8"/>
     <mergeCell ref="K19:L20"/>
     <mergeCell ref="M19:N20"/>
@@ -2763,36 +2793,6 @@
     <mergeCell ref="M3:N8"/>
     <mergeCell ref="K21:L22"/>
     <mergeCell ref="M17:N18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:I18"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:I16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:I10"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="O13:T14"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="O11:T12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:I14"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:I8"/>
-    <mergeCell ref="K3:L8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:I4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="O1:T2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -2806,387 +2806,404 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11906509-F9D3-47C3-A338-F325811791BD}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="K3" s="2" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="K3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="17"/>
+      <c r="O3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
-      <c r="T3" s="4"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="7"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="5"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
-      <c r="T4" s="8"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="K5" s="2" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="K5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="17"/>
+      <c r="M5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
-      <c r="T5" s="4"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="7"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
-      <c r="T6" s="8"/>
+      <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="3"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
-      <c r="T7" s="4"/>
+      <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="7"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
-      <c r="T8" s="8"/>
+      <c r="T8" s="6"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:I10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:I14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:I22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:I20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:I16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:I18"/>
+    <mergeCell ref="O5:T6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:I8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="O7:T8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:I6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="M5:N6"/>
     <mergeCell ref="O1:T2"/>
     <mergeCell ref="K3:L4"/>
     <mergeCell ref="M3:N4"/>
@@ -3197,28 +3214,11 @@
     <mergeCell ref="B1:I2"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="M1:N2"/>
-    <mergeCell ref="O5:T6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:I8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="O7:T8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:I6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:I16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:I18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:I22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:I20"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:I10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:I14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3230,603 +3230,582 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65183E65-2D77-4172-8F46-39537D2E1BAB}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:I18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="K3" s="2" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="K3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="17"/>
+      <c r="O3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
-      <c r="T3" s="4"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="7"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="5"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
-      <c r="T4" s="8"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="K5" s="2" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="K5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="17"/>
+      <c r="M5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
-      <c r="T5" s="4"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="7"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
-      <c r="T6" s="8"/>
+      <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="K7" s="3" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="K7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3" t="s">
+      <c r="L7" s="2"/>
+      <c r="M7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
-      <c r="T7" s="4"/>
+      <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="7"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
-      <c r="T8" s="8"/>
+      <c r="T8" s="6"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="K9" s="2" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="K9" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="3"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="4"/>
+      <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="7"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
-      <c r="T10" s="8"/>
+      <c r="T10" s="6"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3" t="s">
+      <c r="L11" s="2"/>
+      <c r="M11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="3" t="s">
+      <c r="N11" s="2"/>
+      <c r="O11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
-      <c r="T11" s="4"/>
+      <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="7"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
-      <c r="T12" s="8"/>
+      <c r="T12" s="6"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="K13" s="3" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="K13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3" t="s">
+      <c r="L13" s="2"/>
+      <c r="M13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="3" t="s">
+      <c r="N13" s="2"/>
+      <c r="O13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="4"/>
+      <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="7"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
-      <c r="T14" s="8"/>
+      <c r="T14" s="6"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="K15" s="3" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="K15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="3" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="3" t="s">
+      <c r="N15" s="2"/>
+      <c r="O15" s="1" t="s">
         <v>58</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="4"/>
+      <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="7"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
-      <c r="T16" s="8"/>
+      <c r="T16" s="6"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="K17" s="3" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="K17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="3" t="s">
+      <c r="L17" s="2"/>
+      <c r="M17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="3" t="s">
+      <c r="N17" s="2"/>
+      <c r="O17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="4"/>
+      <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="7"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
-      <c r="T18" s="8"/>
+      <c r="T18" s="6"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="K19" s="3" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="K19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="3" t="s">
+      <c r="L19" s="2"/>
+      <c r="M19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="3" t="s">
+      <c r="N19" s="2"/>
+      <c r="O19" s="1" t="s">
         <v>70</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="4"/>
+      <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="7"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="5"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
-      <c r="T20" s="8"/>
+      <c r="T20" s="6"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="3" t="s">
+      <c r="L21" s="2"/>
+      <c r="M21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="3" t="s">
+      <c r="N21" s="2"/>
+      <c r="O21" s="1" t="s">
         <v>79</v>
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
-      <c r="T21" s="4"/>
+      <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="7"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="5"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
-      <c r="T22" s="8"/>
+      <c r="T22" s="6"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="3"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="1"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
-      <c r="T23" s="4"/>
+      <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="7"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="5"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
-      <c r="T24" s="8"/>
+      <c r="T24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M23:N24"/>
-    <mergeCell ref="O23:T24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:I20"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="O19:T20"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="O21:T22"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="O15:T16"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="O17:T18"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="O11:T12"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="O13:T14"/>
-    <mergeCell ref="D13:I14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:I16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:I18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:I10"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="K9:L10"/>
     <mergeCell ref="M9:N10"/>
     <mergeCell ref="O9:T10"/>
     <mergeCell ref="K1:L2"/>
@@ -3840,18 +3819,39 @@
     <mergeCell ref="K5:L6"/>
     <mergeCell ref="M5:N6"/>
     <mergeCell ref="O1:T2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:I10"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:I4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:I6"/>
+    <mergeCell ref="D13:I14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:I16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:I18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="O11:T12"/>
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="O13:T14"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="O15:T16"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="O17:T18"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="O23:T24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:I20"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="O19:T20"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="O21:T22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3862,295 +3862,295 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522DC258-857D-4A69-A943-FA530091B12D}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:I16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="K3" s="2" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="K3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="17"/>
+      <c r="O3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
-      <c r="T3" s="4"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="7"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="5"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
-      <c r="T4" s="8"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="K5" s="2" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="K5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="17"/>
+      <c r="M5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
-      <c r="T5" s="4"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="7"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
-      <c r="T6" s="8"/>
+      <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="3"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
-      <c r="T7" s="4"/>
+      <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="7"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
-      <c r="T8" s="8"/>
+      <c r="T8" s="6"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
@@ -4181,109 +4181,104 @@
       <c r="I18" s="40"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="O5:T6"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="O7:T8"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="O1:T2"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="O3:T4"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:I22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="D23:I24"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:I10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:I14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="D15:I16"/>
@@ -4293,19 +4288,24 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="D17:I18"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:I10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:I14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:I4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:I6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:I22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="D23:I24"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="O1:T2"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="O3:T4"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="O5:T6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="O7:T8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
